--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/withdrawal/WithDrawalValidateMoneyError.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/withdrawal/WithDrawalValidateMoneyError.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12720" windowHeight="5820"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11655" windowHeight="5820"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -41,10 +41,6 @@
     <t>password</t>
   </si>
   <si>
-    <t>it789123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>money</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -72,10 +68,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>it7891234</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>${UserInfoUtils.getBindedCardUser(mobile_num)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -89,6 +81,14 @@
   </si>
   <si>
     <t>aa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ConstantUtils.getCorrectLoginPassword()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ConstantUtils.getCorrectPayPassword()}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -448,7 +448,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -467,19 +467,19 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
         <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -487,25 +487,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -530,7 +530,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -538,7 +538,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
